--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2066,10 +2078,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2113,28 +2125,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2159,28 +2171,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2326,10 +2338,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2373,28 +2385,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2419,28 +2431,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2615,10 +2627,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2662,28 +2674,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2708,28 +2720,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2945,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2980,28 +2992,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3038,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3164,10 +3176,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3211,28 +3223,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3257,28 +3269,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3436,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3471,28 +3483,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3529,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3655,10 +3667,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3702,28 +3714,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3748,28 +3760,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3915,10 +3927,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3962,28 +3974,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4008,28 +4020,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4129,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4176,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4222,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4591,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4626,28 +4638,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4684,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5041,10 +5053,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5088,28 +5100,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5134,28 +5146,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5255,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5302,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5348,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5474,10 +5486,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5521,28 +5533,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5567,28 +5579,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5705,10 +5717,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5752,28 +5764,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5798,28 +5810,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5907,10 +5919,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5954,28 +5966,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6000,28 +6012,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6080,10 +6092,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6127,28 +6139,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6173,28 +6185,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6282,10 +6294,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6329,28 +6341,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6375,28 +6387,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6484,10 +6496,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6531,28 +6543,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6577,28 +6589,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6686,10 +6698,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6733,28 +6745,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6779,28 +6791,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6859,10 +6871,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6906,28 +6918,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6952,28 +6964,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7061,10 +7073,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7108,28 +7120,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7154,28 +7166,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7234,10 +7246,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7281,28 +7293,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7327,28 +7339,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7407,10 +7419,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7454,28 +7466,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7500,28 +7512,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7592,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7627,28 +7639,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7685,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7782,10 +7794,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7829,28 +7841,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7875,28 +7887,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
